--- a/Lockdown dataset/Lockdown.xlsx
+++ b/Lockdown dataset/Lockdown.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23101"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{784CCB51-7AC1-4D82-9FDB-344F5C25FE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80C84C1-5079-499E-8E8A-18FA3E3C7E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,73 +45,73 @@
     <t>AVG(length)</t>
   </si>
   <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
-    <t>Belarus</t>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
   <si>
     <t>Canada</t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
     <t>China</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Israel</t>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>US</t>
   </si>
 </sst>
 </file>
@@ -503,23 +503,15 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <f>DATE(2020,3,16)</f>
-        <v>43906</v>
-      </c>
-      <c r="C2" s="1">
-        <f>DATE(2020,5,1)</f>
-        <v>43952</v>
-      </c>
       <c r="D2">
         <f>_xlfn.DAYS(C2,B2)</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14,D15,D16,D17,D18,D19,D20,D21,D22,D23,D24)</f>
+        <f>AVERAGE(D2:D24)</f>
         <v>49.260869565217391</v>
       </c>
     </row>
@@ -528,31 +520,23 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D15" si="0">_xlfn.DAYS(C3,B3)</f>
+        <f>_xlfn.DAYS(C3,B3)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
-        <f>DATE(2020,3,16)</f>
-        <v>43906</v>
-      </c>
-      <c r="C4" s="1">
-        <f>DATE(2020,5,11)</f>
-        <v>43962</v>
-      </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>_xlfn.DAYS(C4,B4)</f>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -560,19 +544,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <f>DATE(2020,1,23)</f>
-        <v>43853</v>
+        <f>DATE(2020,3,16)</f>
+        <v>43906</v>
       </c>
       <c r="C5" s="1">
-        <f>DATE(2020,4,6)</f>
-        <v>43927</v>
+        <f>DATE(2020,3,31)</f>
+        <v>43921</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f>_xlfn.DAYS(C5,B5)</f>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -580,16 +564,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <f>DATE(2020,3,16)</f>
-        <v>43906</v>
+        <f>DATE(2020,3,23)</f>
+        <v>43913</v>
       </c>
       <c r="C6" s="1">
-        <f>DATE(2020,4,27)</f>
-        <v>43948</v>
+        <f>DATE(2020,4,20)</f>
+        <v>43941</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>_xlfn.DAYS(C6,B6)</f>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -608,7 +592,7 @@
         <v>43935</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>_xlfn.DAYS(C7,B7)</f>
         <v>32</v>
       </c>
       <c r="E7">
@@ -620,16 +604,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <f>DATE(2020,3,16)</f>
-        <v>43906</v>
+        <f>DATE(2020,3,19)</f>
+        <v>43909</v>
       </c>
       <c r="C8" s="1">
-        <f>DATE(2020,3,31)</f>
-        <v>43921</v>
+        <f>DATE(2020,4,20)</f>
+        <v>43941</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>_xlfn.DAYS(C8,B8)</f>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -640,19 +624,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <f>DATE(2020,3,17)</f>
-        <v>43907</v>
+        <f>DATE(2020,3,9)</f>
+        <v>43899</v>
       </c>
       <c r="C9" s="1">
-        <f>DATE(2020,5,11)</f>
-        <v>43962</v>
+        <f>DATE(2020,4,19)</f>
+        <v>43940</v>
       </c>
       <c r="D9">
         <f>_xlfn.DAYS(C9,B9)</f>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -660,16 +644,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <f>DATE(2020,3,23)</f>
-        <v>43913</v>
+        <f>DATE(2020,3,16)</f>
+        <v>43906</v>
       </c>
       <c r="C10" s="1">
-        <f>DATE(2020,4,20)</f>
-        <v>43941</v>
+        <f>DATE(2020,4,27)</f>
+        <v>43948</v>
       </c>
       <c r="D10">
         <f>_xlfn.DAYS(C10,B10)</f>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -680,16 +664,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <f>DATE(2020,3,12)</f>
-        <v>43902</v>
+        <f>DATE(2020,3,13)</f>
+        <v>43903</v>
       </c>
       <c r="C11" s="1">
-        <f>DATE(2020,5,18)</f>
-        <v>43969</v>
+        <f>DATE(2020,4,26)</f>
+        <v>43947</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f>_xlfn.DAYS(C11,B11)</f>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -700,19 +684,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <f>DATE(2020,3,9)</f>
-        <v>43899</v>
+        <f>DATE(2020,3,16)</f>
+        <v>43906</v>
       </c>
       <c r="C12" s="1">
-        <f>DATE(2020,4,19)</f>
-        <v>43940</v>
+        <f>DATE(2020,5,1)</f>
+        <v>43952</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f>_xlfn.DAYS(C12,B12)</f>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -720,16 +704,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f>DATE(2020,2,22)</f>
-        <v>43883</v>
+        <f>DATE(2020,3,15)</f>
+        <v>43905</v>
       </c>
       <c r="C13" s="1">
-        <f>DATE(2020,6,3)</f>
-        <v>43985</v>
+        <f>DATE(2020,5,4)</f>
+        <v>43955</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>102</v>
+        <f>_xlfn.DAYS(C13,B13)</f>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -740,16 +724,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <f>DATE(2020,2,27)</f>
-        <v>43888</v>
+        <f>DATE(2020,3,17)</f>
+        <v>43907</v>
       </c>
       <c r="C14" s="1">
-        <f>DATE(2020,5,25)</f>
-        <v>43976</v>
+        <f>DATE(2020,5,11)</f>
+        <v>43962</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f>_xlfn.DAYS(C14,B14)</f>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -760,16 +744,16 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <f>DATE(2020,3,15)</f>
-        <v>43905</v>
+        <f>DATE(2020,3,16)</f>
+        <v>43906</v>
       </c>
       <c r="C15" s="1">
         <f>DATE(2020,5,11)</f>
         <v>43962</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f>_xlfn.DAYS(C15,B15)</f>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -780,16 +764,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <f>DATE(2020,3,19)</f>
-        <v>43909</v>
+        <f>DATE(2020,3,14)</f>
+        <v>43904</v>
       </c>
       <c r="C16" s="1">
-        <f>DATE(2020,4,20)</f>
-        <v>43941</v>
+        <f>DATE(2020,5,9)</f>
+        <v>43960</v>
       </c>
       <c r="D16">
         <f>_xlfn.DAYS(C16,B16)</f>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -800,16 +784,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <f>DATE(2020,3,25)</f>
-        <v>43915</v>
+        <f>DATE(2020,3,15)</f>
+        <v>43905</v>
       </c>
       <c r="C17" s="1">
-        <f>DATE(2020,6,1)</f>
-        <v>43983</v>
+        <f>DATE(2020,5,11)</f>
+        <v>43962</v>
       </c>
       <c r="D17">
         <f>_xlfn.DAYS(C17,B17)</f>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -820,16 +804,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <f>DATE(2020,3,15)</f>
-        <v>43905</v>
+        <f>DATE(2020,3,12)</f>
+        <v>43902</v>
       </c>
       <c r="C18" s="1">
-        <f>DATE(2020,5,4)</f>
-        <v>43955</v>
+        <f>DATE(2020,5,18)</f>
+        <v>43969</v>
       </c>
       <c r="D18">
         <f>_xlfn.DAYS(C18,B18)</f>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -839,12 +823,20 @@
       <c r="A19" t="s">
         <v>23</v>
       </c>
+      <c r="B19" s="1">
+        <f>DATE(2020,3,25)</f>
+        <v>43915</v>
+      </c>
+      <c r="C19" s="1">
+        <f>DATE(2020,6,1)</f>
+        <v>43983</v>
+      </c>
       <c r="D19">
         <f>_xlfn.DAYS(C19,B19)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -852,31 +844,39 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <f>DATE(2020,3,14)</f>
-        <v>43904</v>
+        <f>DATE(2020,1,23)</f>
+        <v>43853</v>
       </c>
       <c r="C20" s="1">
-        <f>DATE(2020,5,9)</f>
-        <v>43960</v>
+        <f>DATE(2020,4,6)</f>
+        <v>43927</v>
       </c>
       <c r="D20">
         <f>_xlfn.DAYS(C20,B20)</f>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>25</v>
       </c>
+      <c r="B21" s="1">
+        <f>DATE(2020,3,23)</f>
+        <v>43913</v>
+      </c>
+      <c r="C21" s="1">
+        <f>DATE(2020,6,8)</f>
+        <v>43990</v>
+      </c>
       <c r="D21">
         <f>_xlfn.DAYS(C21,B21)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -884,16 +884,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="1">
-        <f>DATE(2020,3,13)</f>
-        <v>43903</v>
+        <f>DATE(2020,2,27)</f>
+        <v>43888</v>
       </c>
       <c r="C22" s="1">
-        <f>DATE(2020,4,26)</f>
-        <v>43947</v>
+        <f>DATE(2020,5,25)</f>
+        <v>43976</v>
       </c>
       <c r="D22">
         <f>_xlfn.DAYS(C22,B22)</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -904,16 +904,16 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <f>DATE(2020,3,23)</f>
-        <v>43913</v>
+        <f>DATE(2020,2,22)</f>
+        <v>43883</v>
       </c>
       <c r="C23" s="1">
-        <f>DATE(2020,7,4)</f>
-        <v>44016</v>
+        <f>DATE(2020,6,3)</f>
+        <v>43985</v>
       </c>
       <c r="D23">
         <f>_xlfn.DAYS(C23,B23)</f>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -928,18 +928,21 @@
         <v>43913</v>
       </c>
       <c r="C24" s="1">
-        <f>DATE(2020,6,8)</f>
-        <v>43990</v>
+        <f>DATE(2020,7,4)</f>
+        <v>44016</v>
       </c>
       <c r="D24">
         <f>_xlfn.DAYS(C24,B24)</f>
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+    <sortCondition ref="D2:D24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lockdown dataset/Lockdown.xlsx
+++ b/Lockdown dataset/Lockdown.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23107"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D80C84C1-5079-499E-8E8A-18FA3E3C7E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{504010C9-D0C7-4C6A-A375-66209DA9A06A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Country</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>AVG(length)</t>
-  </si>
-  <si>
-    <t>Belarus</t>
   </si>
   <si>
     <t>South Korea</t>
@@ -464,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,11 +505,11 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(D2:D24)</f>
-        <v>49.260869565217391</v>
+        <f>AVERAGE(D2:D23)</f>
+        <v>51.5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -531,12 +528,20 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="1">
+        <f>DATE(2020,3,16)</f>
+        <v>43906</v>
+      </c>
+      <c r="C4" s="1">
+        <f>DATE(2020,3,31)</f>
+        <v>43921</v>
+      </c>
       <c r="D4">
         <f>_xlfn.DAYS(C4,B4)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,16 +549,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <f>DATE(2020,3,16)</f>
-        <v>43906</v>
+        <f>DATE(2020,3,23)</f>
+        <v>43913</v>
       </c>
       <c r="C5" s="1">
-        <f>DATE(2020,3,31)</f>
-        <v>43921</v>
+        <f>DATE(2020,4,20)</f>
+        <v>43941</v>
       </c>
       <c r="D5">
         <f>_xlfn.DAYS(C5,B5)</f>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -564,16 +569,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <f>DATE(2020,3,23)</f>
-        <v>43913</v>
+        <f>DATE(2020,3,13)</f>
+        <v>43903</v>
       </c>
       <c r="C6" s="1">
-        <f>DATE(2020,4,20)</f>
-        <v>43941</v>
+        <f>DATE(2020,4,14)</f>
+        <v>43935</v>
       </c>
       <c r="D6">
         <f>_xlfn.DAYS(C6,B6)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -584,12 +589,12 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <f>DATE(2020,3,13)</f>
-        <v>43903</v>
+        <f>DATE(2020,3,19)</f>
+        <v>43909</v>
       </c>
       <c r="C7" s="1">
-        <f>DATE(2020,4,14)</f>
-        <v>43935</v>
+        <f>DATE(2020,4,20)</f>
+        <v>43941</v>
       </c>
       <c r="D7">
         <f>_xlfn.DAYS(C7,B7)</f>
@@ -604,19 +609,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <f>DATE(2020,3,19)</f>
-        <v>43909</v>
+        <f>DATE(2020,3,9)</f>
+        <v>43899</v>
       </c>
       <c r="C8" s="1">
-        <f>DATE(2020,4,20)</f>
-        <v>43941</v>
+        <f>DATE(2020,4,19)</f>
+        <v>43940</v>
       </c>
       <c r="D8">
         <f>_xlfn.DAYS(C8,B8)</f>
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -624,19 +629,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <f>DATE(2020,3,9)</f>
-        <v>43899</v>
+        <f>DATE(2020,3,16)</f>
+        <v>43906</v>
       </c>
       <c r="C9" s="1">
-        <f>DATE(2020,4,19)</f>
-        <v>43940</v>
+        <f>DATE(2020,4,27)</f>
+        <v>43948</v>
       </c>
       <c r="D9">
         <f>_xlfn.DAYS(C9,B9)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -644,16 +649,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <f>DATE(2020,3,16)</f>
-        <v>43906</v>
+        <f>DATE(2020,3,13)</f>
+        <v>43903</v>
       </c>
       <c r="C10" s="1">
-        <f>DATE(2020,4,27)</f>
-        <v>43948</v>
+        <f>DATE(2020,4,26)</f>
+        <v>43947</v>
       </c>
       <c r="D10">
         <f>_xlfn.DAYS(C10,B10)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -664,16 +669,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <f>DATE(2020,3,13)</f>
-        <v>43903</v>
+        <f>DATE(2020,3,16)</f>
+        <v>43906</v>
       </c>
       <c r="C11" s="1">
-        <f>DATE(2020,4,26)</f>
-        <v>43947</v>
+        <f>DATE(2020,5,1)</f>
+        <v>43952</v>
       </c>
       <c r="D11">
         <f>_xlfn.DAYS(C11,B11)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -684,16 +689,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <f>DATE(2020,3,16)</f>
-        <v>43906</v>
+        <f>DATE(2020,3,15)</f>
+        <v>43905</v>
       </c>
       <c r="C12" s="1">
-        <f>DATE(2020,5,1)</f>
-        <v>43952</v>
+        <f>DATE(2020,5,4)</f>
+        <v>43955</v>
       </c>
       <c r="D12">
         <f>_xlfn.DAYS(C12,B12)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -704,16 +709,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <f>DATE(2020,3,15)</f>
-        <v>43905</v>
+        <f>DATE(2020,3,17)</f>
+        <v>43907</v>
       </c>
       <c r="C13" s="1">
-        <f>DATE(2020,5,4)</f>
-        <v>43955</v>
+        <f>DATE(2020,5,11)</f>
+        <v>43962</v>
       </c>
       <c r="D13">
         <f>_xlfn.DAYS(C13,B13)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -724,8 +729,8 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <f>DATE(2020,3,17)</f>
-        <v>43907</v>
+        <f>DATE(2020,3,16)</f>
+        <v>43906</v>
       </c>
       <c r="C14" s="1">
         <f>DATE(2020,5,11)</f>
@@ -733,7 +738,7 @@
       </c>
       <c r="D14">
         <f>_xlfn.DAYS(C14,B14)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -744,12 +749,12 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <f>DATE(2020,3,16)</f>
-        <v>43906</v>
+        <f>DATE(2020,3,14)</f>
+        <v>43904</v>
       </c>
       <c r="C15" s="1">
-        <f>DATE(2020,5,11)</f>
-        <v>43962</v>
+        <f>DATE(2020,5,9)</f>
+        <v>43960</v>
       </c>
       <c r="D15">
         <f>_xlfn.DAYS(C15,B15)</f>
@@ -764,16 +769,16 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <f>DATE(2020,3,14)</f>
-        <v>43904</v>
+        <f>DATE(2020,3,15)</f>
+        <v>43905</v>
       </c>
       <c r="C16" s="1">
-        <f>DATE(2020,5,9)</f>
-        <v>43960</v>
+        <f>DATE(2020,5,11)</f>
+        <v>43962</v>
       </c>
       <c r="D16">
         <f>_xlfn.DAYS(C16,B16)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -784,16 +789,16 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <f>DATE(2020,3,15)</f>
-        <v>43905</v>
+        <f>DATE(2020,3,12)</f>
+        <v>43902</v>
       </c>
       <c r="C17" s="1">
-        <f>DATE(2020,5,11)</f>
-        <v>43962</v>
+        <f>DATE(2020,5,18)</f>
+        <v>43969</v>
       </c>
       <c r="D17">
         <f>_xlfn.DAYS(C17,B17)</f>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -804,16 +809,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <f>DATE(2020,3,12)</f>
-        <v>43902</v>
+        <f>DATE(2020,3,25)</f>
+        <v>43915</v>
       </c>
       <c r="C18" s="1">
-        <f>DATE(2020,5,18)</f>
-        <v>43969</v>
+        <f>DATE(2020,6,1)</f>
+        <v>43983</v>
       </c>
       <c r="D18">
         <f>_xlfn.DAYS(C18,B18)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -824,19 +829,19 @@
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <f>DATE(2020,3,25)</f>
-        <v>43915</v>
+        <f>DATE(2020,1,23)</f>
+        <v>43853</v>
       </c>
       <c r="C19" s="1">
-        <f>DATE(2020,6,1)</f>
-        <v>43983</v>
+        <f>DATE(2020,4,6)</f>
+        <v>43927</v>
       </c>
       <c r="D19">
         <f>_xlfn.DAYS(C19,B19)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -844,16 +849,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="1">
-        <f>DATE(2020,1,23)</f>
-        <v>43853</v>
+        <f>DATE(2020,3,23)</f>
+        <v>43913</v>
       </c>
       <c r="C20" s="1">
-        <f>DATE(2020,4,6)</f>
-        <v>43927</v>
+        <f>DATE(2020,6,8)</f>
+        <v>43990</v>
       </c>
       <c r="D20">
         <f>_xlfn.DAYS(C20,B20)</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -864,19 +869,19 @@
         <v>25</v>
       </c>
       <c r="B21" s="1">
-        <f>DATE(2020,3,23)</f>
-        <v>43913</v>
+        <f>DATE(2020,2,27)</f>
+        <v>43888</v>
       </c>
       <c r="C21" s="1">
-        <f>DATE(2020,6,8)</f>
-        <v>43990</v>
+        <f>DATE(2020,5,25)</f>
+        <v>43976</v>
       </c>
       <c r="D21">
         <f>_xlfn.DAYS(C21,B21)</f>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -884,16 +889,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="1">
-        <f>DATE(2020,2,27)</f>
-        <v>43888</v>
+        <f>DATE(2020,2,22)</f>
+        <v>43883</v>
       </c>
       <c r="C22" s="1">
-        <f>DATE(2020,5,25)</f>
-        <v>43976</v>
+        <f>DATE(2020,6,3)</f>
+        <v>43985</v>
       </c>
       <c r="D22">
         <f>_xlfn.DAYS(C22,B22)</f>
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -904,38 +909,18 @@
         <v>27</v>
       </c>
       <c r="B23" s="1">
-        <f>DATE(2020,2,22)</f>
-        <v>43883</v>
+        <f>DATE(2020,3,23)</f>
+        <v>43913</v>
       </c>
       <c r="C23" s="1">
-        <f>DATE(2020,6,3)</f>
-        <v>43985</v>
+        <f>DATE(2020,7,4)</f>
+        <v>44016</v>
       </c>
       <c r="D23">
         <f>_xlfn.DAYS(C23,B23)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1">
-        <f>DATE(2020,3,23)</f>
-        <v>43913</v>
-      </c>
-      <c r="C24" s="1">
-        <f>DATE(2020,7,4)</f>
-        <v>44016</v>
-      </c>
-      <c r="D24">
-        <f>_xlfn.DAYS(C24,B24)</f>
-        <v>103</v>
-      </c>
-      <c r="E24">
         <v>3</v>
       </c>
     </row>
